--- a/src/main/java/com/iciciprunew/qa/testdata/testdata.xlsx
+++ b/src/main/java/com/iciciprunew/qa/testdata/testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\eclipse-workspace\IciciPruNew\src\main\java\com\icicipunew\qa\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hybrid TestNG Framework\IciciPruNew\src\main\java\com\iciciprunew\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165B069F-6B82-4FBD-BFA5-593B8F086E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D91B44B-A983-4D7F-87C2-C36704DE43E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>UserName</t>
   </si>
@@ -37,6 +37,18 @@
   </si>
   <si>
     <t>Nv6abft$</t>
+  </si>
+  <si>
+    <t>hjiuih@lkj#</t>
+  </si>
+  <si>
+    <t>huy7@46556</t>
+  </si>
+  <si>
+    <t>huy7@46hdd</t>
+  </si>
+  <si>
+    <t>hjiuih@lkj#123</t>
   </si>
 </sst>
 </file>
@@ -68,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -76,36 +88,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -389,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,26 +395,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>123645</v>
+      </c>
+      <c r="B5" s="1">
+        <v>125846</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{D9F16AC1-38A3-4C1E-9AB7-EEA0B3EC2916}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{0BB7C3E3-2903-4FE9-ACA5-0C588A2DC4FA}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{470C6CC4-1BA5-4B99-894B-87CEAD2D4E7E}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{DBB3F764-D579-4D76-95AA-FDCE4D375C77}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>